--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F334482B-343F-4898-927D-C9BA8C947364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793717E6-F9BF-4C22-9E46-FCC5C2332DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,12 +110,6 @@
     <t>持续：房间宽度加1，高度加1，手牌基数在计算其他加成后翻倍。</t>
   </si>
   <si>
-    <t>挑战开始时：从额外牌堆将《收藏家》牌洗入主牌堆。&lt;br&gt;
-持续：横置的牌无法被正置。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《收藏家》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战开始时：重整。
 重整后：从额外牌堆向房间区所有列最前方发1张《沙虫》牌。&lt;br&gt;
 挑战结束时：将所有不在额外牌堆的《沙虫》牌放回额外牌堆。</t>
@@ -135,6 +129,12 @@
   <si>
     <t>挑战开始时：从额外牌堆选1张《红王》牌或1张《蓝王》牌洗入主牌堆。&lt;br&gt;
 挑战结束时：将所有不在额外牌堆的《红王》牌和《蓝王》牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战开始时：从额外牌堆将《收藏家》牌洗入主牌堆。&lt;br&gt;
+持续：道具牌使用后横置。&lt;br&gt;
+挑战结束时：将所有道具牌正置，所有不在额外牌堆的《收藏家》牌放回额外牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793717E6-F9BF-4C22-9E46-FCC5C2332DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC74C06-4571-4865-ACED-45FE0A180224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：房间宽度加1，高度加1，手牌基数在计算其他加成后翻倍。</t>
-  </si>
-  <si>
     <t>挑战开始时：重整。
 重整后：从额外牌堆向房间区所有列最前方发1张《沙虫》牌。&lt;br&gt;
 挑战结束时：将所有不在额外牌堆的《沙虫》牌放回额外牌堆。</t>
@@ -135,6 +132,10 @@
     <t>挑战开始时：从额外牌堆将《收藏家》牌洗入主牌堆。&lt;br&gt;
 持续：道具牌使用后横置。&lt;br&gt;
 挑战结束时：将所有道具牌正置，所有不在额外牌堆的《收藏家》牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续：房间宽度加1，高度加1，玩家重整时可以额外抽2张牌，翻选时可以额外翻2张牌、额外选1张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +467,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -554,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -565,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -576,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -587,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -598,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC74C06-4571-4865-ACED-45FE0A180224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422BFA6-1956-4AD4-A990-B416E4E72B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,38 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：房间宽度固定为1，高度在计算其他加成后翻倍，手牌基数在计算其他加成后减半（向上取整）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续：房间区最前方的牌在发牌时背面向上。&lt;br&gt;
-开战时：将战场中背面向上的牌翻正。&lt;br&gt;：
-回合结束时：选房间区1张牌翻正。</t>
-  </si>
-  <si>
-    <t>挑战开始时：重整。这之后，从额外牌堆将《命匣》牌洗入主牌堆。&lt;br&gt;
-重整后：从额外牌堆将《巫妖》牌放在房间区任意列最前方。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《巫妖》牌和《命匣》牌放回额外牌堆。</t>
-  </si>
-  <si>
-    <t>挑战开始时：重整。这之后，将主牌堆所有牌送墓，在此期间不触发任何效果。&lt;br&gt;
-重整后：从额外牌堆向房间区任意一列的最前方发1张《冠军》牌。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《冠军》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：重整。
-重整后：从额外牌堆向房间区所有列最前方发1张《沙虫》牌。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《沙虫》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：从额外牌堆将《时空吞噬者》牌洗入主牌堆。&lt;br&gt;
-持续：弃牌堆的牌无法移出弃牌堆，消耗时间时不弃牌，玩家不能休息。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《时空吞噬者》牌放回额外牌堆，然后将弃牌堆所有牌送墓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战开始时：从额外牌堆将5张《手指》牌洗入主牌堆。&lt;br&gt;
 挑战结束时：将所有不在额外牌堆的《手指》牌放回额外牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +103,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续：房间宽度加1，高度加1，玩家重整时可以额外抽2张牌，翻选时可以额外翻2张牌、额外选1张牌。</t>
+    <t>房间区宽度降低至1，高度增加宽度降低的数值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间区中央的牌在发牌时背面向上。&lt;br&gt;
+开战时：将战场中背面向上的牌翻正。&lt;br&gt;
+回合结束时：选房间区1张牌翻正。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间宽度加1，高度加1。&lt;br&gt;
+玩家手牌基数加3。&lt;br&gt;
+翻选时可以额外翻2张牌，额外选1张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战开始时：从额外牌堆将《命匣》牌洗入主牌堆。&lt;br&gt;
+重整后：从额外牌堆将1张《巫妖》牌放在房间区任意槽位中。&lt;br&gt;
+挑战结束时：将所有不在额外牌堆的《巫妖》牌和《命匣》牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战开始时：将主牌堆所有牌送墓，此期间内牌的送墓时效果无效。&lt;br&gt;
+重整后：从额外牌堆将1张《冠军》牌放在房间区任意槽位中。&lt;br&gt;
+挑战结束时：将所有不在额外牌堆的《冠军》牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战开始时：重整。
+重整后：从额外牌堆将2张《沙虫》牌分别放到房间区和备战区的任意槽位中。&lt;br&gt;
+挑战结束时：将所有不在额外牌堆的《沙虫》牌放回额外牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战开始时：从额外牌堆将《时空吞噬者》牌洗入主牌堆。&lt;br&gt;
+持续：弃牌堆的牌无法移出弃牌堆，所有消耗时间的牌无效。&lt;br&gt;
+挑战结束时：将所有不在额外牌堆的《时空吞噬者》牌放回额外牌堆，然后将弃牌堆所有牌送墓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,18 +504,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -522,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -533,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -544,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -555,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -566,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -577,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -588,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -599,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422BFA6-1956-4AD4-A990-B416E4E72B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9ADCE0-06AC-40E6-8DB7-D4891EE0265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一线天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大墓地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,75 +70,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲突层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙虫坑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挑战开始时：从额外牌堆将5张《手指》牌洗入主牌堆。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《手指》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：从额外牌堆选1张《红王》牌或1张《蓝王》牌洗入主牌堆。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《红王》牌和《蓝王》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：从额外牌堆将《收藏家》牌洗入主牌堆。&lt;br&gt;
-持续：道具牌使用后横置。&lt;br&gt;
-挑战结束时：将所有道具牌正置，所有不在额外牌堆的《收藏家》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间区宽度降低至1，高度增加宽度降低的数值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间区中央的牌在发牌时背面向上。&lt;br&gt;
-开战时：将战场中背面向上的牌翻正。&lt;br&gt;
-回合结束时：选房间区1张牌翻正。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间宽度加1，高度加1。&lt;br&gt;
-玩家手牌基数加3。&lt;br&gt;
-翻选时可以额外翻2张牌，额外选1张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：从额外牌堆将《命匣》牌洗入主牌堆。&lt;br&gt;
-重整后：从额外牌堆将1张《巫妖》牌放在房间区任意槽位中。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《巫妖》牌和《命匣》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：将主牌堆所有牌送墓，此期间内牌的送墓时效果无效。&lt;br&gt;
-重整后：从额外牌堆将1张《冠军》牌放在房间区任意槽位中。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《冠军》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：重整。
-重整后：从额外牌堆将2张《沙虫》牌分别放到房间区和备战区的任意槽位中。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《沙虫》牌放回额外牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战开始时：从额外牌堆将《时空吞噬者》牌洗入主牌堆。&lt;br&gt;
-持续：弃牌堆的牌无法移出弃牌堆，所有消耗时间的牌无效。&lt;br&gt;
-挑战结束时：将所有不在额外牌堆的《时空吞噬者》牌放回额外牌堆，然后将弃牌堆所有牌送墓。</t>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。战斗中，战场外的牌无法移入战场，战场中的牌无法移出战场。&lt;br&gt;
+BOSS ：从额外牌堆将1张《冠军》牌放在房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。墓地中的牌不受玩家控制的牌的效果影响。&lt;br&gt;
+BOSS：从额外牌堆将1张《命匣》牌洗入主牌堆。每次重整后，从额外牌堆将《巫妖》牌放在房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。场上的牌无法移动到《沙虫》所在槽位中。&lt;br&gt;
+BOSS：从额外牌堆将3张《沙虫》牌依次放在房间区任意槽位中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。玩家的手牌只能被打出。&lt;br&gt;
+BOSS：从额外牌堆将5张《封印手指》牌洗入主牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷雾森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。重整时，房间区中央的牌保持背面向上发出。&lt;br&gt;
+BOSS：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1。&lt;br&gt;
+DL3：房间尺寸加1。遗物牌使用后横置，且不会在回合结束时被复位。&lt;br&gt;
+BOSS：从额外牌堆将1张《收藏家》牌洗入主牌堆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,18 +471,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -515,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -526,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -537,73 +512,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9ADCE0-06AC-40E6-8DB7-D4891EE0265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15CDEA-AFE6-48AC-AE22-A30A2580B04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,47 +74,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。战斗中，战场外的牌无法移入战场，战场中的牌无法移出战场。&lt;br&gt;
-BOSS ：从额外牌堆将1张《冠军》牌放在房间区任意槽位中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。墓地中的牌不受玩家控制的牌的效果影响。&lt;br&gt;
-BOSS：从额外牌堆将1张《命匣》牌洗入主牌堆。每次重整后，从额外牌堆将《巫妖》牌放在房间区任意槽位中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手指层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。场上的牌无法移动到《沙虫》所在槽位中。&lt;br&gt;
-BOSS：从额外牌堆将3张《沙虫》牌依次放在房间区任意槽位中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。玩家的手牌只能被打出。&lt;br&gt;
-BOSS：从额外牌堆将5张《封印手指》牌洗入主牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>迷雾森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。重整时，房间区中央的牌保持背面向上发出。&lt;br&gt;
-BOSS：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL2：房间尺寸加1。&lt;br&gt;
-DL3：房间尺寸加1。遗物牌使用后横置，且不会在回合结束时被复位。&lt;br&gt;
-BOSS：从额外牌堆将1张《收藏家》牌洗入主牌堆。</t>
+    <t>DL2：房间尺寸加1，手牌基数加1。墓地中的牌不受玩家控制的牌的效果影响。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将1张《命匣》牌洗入主牌堆。每次重整后，从额外牌堆将《巫妖》牌放在房间区任意槽位中。&lt;br&gt;
+胜利条件：《巫妖》牌进入墓地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。遗物牌使用后横置，且不会在回合结束时被复位。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将1张《收藏家》牌洗入主牌堆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。玩家的手牌只能被打出。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将5张《封印手指》牌洗入主牌堆。&lt;br&gt;
+胜利条件：所有《封印手指》牌进入墓地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。每次重整时，房间区中央的牌保持背面向上发出。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。战斗中，战场外的牌无法移入战场，战场中的牌无法移出战场。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将1张《冠军》牌放在房间区任意槽位中，然后将主牌堆所有牌送墓，此过程中不触发任何送墓时效果。&lt;br&gt;
+胜利条件：《冠军》牌进入墓地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。场上的牌无法移动到《沙虫》所在槽位中。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将2张《沙虫》牌依次放在房间区任意槽位中。&lt;br&gt;
+胜利条件：所有《沙虫》牌进入墓地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -479,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -490,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -501,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,12 +510,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -528,13 +526,13 @@
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sheet/ChallengeCardData.xlsx
+++ b/sheet/ChallengeCardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\nanDeck\DungeonCrawlDeckMaster\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15CDEA-AFE6-48AC-AE22-A30A2580B04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237E1F9-81BB-4C0D-9A43-5CDCE8DBCFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,11 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL2：房间尺寸加1，手牌基数加1。遗物牌使用后横置，且不会在回合结束时被复位。&lt;br&gt;
-DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将1张《收藏家》牌洗入主牌堆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DL2：房间尺寸加1，手牌基数加1。玩家的手牌只能被打出。&lt;br&gt;
 DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将5张《封印手指》牌洗入主牌堆。&lt;br&gt;
 胜利条件：所有《封印手指》牌进入墓地。</t>
@@ -113,6 +108,12 @@
     <t>DL2：房间尺寸加1，手牌基数加1。场上的牌无法移动到《沙虫》所在槽位中。&lt;br&gt;
 DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将2张《沙虫》牌依次放在房间区任意槽位中。&lt;br&gt;
 胜利条件：所有《沙虫》牌进入墓地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL2：房间尺寸加1，手牌基数加1。遗物牌使用后横置，且不会在回合结束时被复位。&lt;br&gt;
+DL3：房间尺寸加1，手牌基数加1。首次重整后，从额外牌堆将1张《收藏家》牌洗入主牌堆。&lt;br&gt;
+胜利条件：《收藏家》牌进入墓地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -499,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -510,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -521,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -532,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
